--- a/Симферополь/2025/03,25/27,03,25 Симф ЗПФ/дв 26,03,25зам-2.xlsx
+++ b/Симферополь/2025/03,25/27,03,25 Симф ЗПФ/дв 26,03,25зам-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\27,03,25 Симф ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\Симферополь\2025\03,25\27,03,25 Симф ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A6E37-D132-4F77-B9A7-B8BDE351D36B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC9DDC1-A10E-4BEE-BF80-BAE1119DF2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15090,10 +15090,10 @@
   <dimension ref="A1:AG70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomRight" activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
